--- a/similarities/split_global/harmonic_similarity_timestamps_165.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_165.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>isophonics_46</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:04:03.440000', '0:04:09.260000'), ('0:00:21.940000', '0:00:27.520000'), ('0:00:07.220000', '0:00:10.760000')]</t>
+          <t>('0:00:55.580000', '0:01:02.320000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:10.060000', '0:01:20.280000'), ('0:00:41.580000', '0:00:43.480000'), ('0:01:30.780000', '0:01:41.320000')]</t>
+          <t>('0:00:28.921995', '0:00:33.101587')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=21.94', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=7.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=90.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7']]</t>
+          <t>['D', 'G:min', 'D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'E:7/G#']]</t>
+          <t>['A#:maj/F', 'D#:min/F#', 'A#:maj/F']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:24.120000', '0:00:27')]</t>
+          <t>('0:02:04.737522', '0:02:11.471309')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:07.020000', '0:00:15.100000')]</t>
+          <t>('0:01:14.340000', '0:01:16.240000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=124.737522</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=7.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=74.34</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>isophonics_9</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['B:7', 'E', 'G#:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['C:7', 'F:maj', 'A:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+          <t>('0:00:29.455036', '0:00:31.869912')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:02:08.760000', '0:02:14')]</t>
+          <t>('0:00:41.512000', '0:00:46.124000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-9#t=29.455036</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=41.512</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_8</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
+          <t>['E:min', 'B:(3,5,b7,b9)', 'E:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:08.635573')]</t>
+          <t>('0:01:33.100000', '0:01:51.540000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:10.460000', '0:00:16.360000')]</t>
+          <t>('0:00:32.520000', '0:00:47.400000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=93.1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=10.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-8#t=32.52</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_38</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['D#:min/A#', 'A#', 'D#:min/A#']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:06.260000')]</t>
+          <t>('0:00:13.180000', '0:00:19.520000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:04.860000', '0:00:09.640000')]</t>
+          <t>('0:00:49.280000', '0:00:53.940000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=4.86']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=49.28</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_62</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_49</t>
+          <t>isophonics_70</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min7', 'C:7']]</t>
+          <t>['F#:min', 'B', 'E']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min7', 'F:7']]</t>
+          <t>['D:min', 'G', 'C']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:29.420000', '0:00:30.520000')]</t>
+          <t>('0:00:12.196848', '0:00:18.779705')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:01.800000')]</t>
+          <t>('0:01:20.956000', '0:01:25.176000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-62#t=29.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=12.196848</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-49#t=0.58']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-70#t=80.956</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_69</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:7', 'C:maj/G', 'G:7', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['F:7', 'A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:01:36.660000', '0:01:46.300000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:03.101913', '0:00:07.754783')]</t>
+          <t>('0:01:41.440000', '0:01:52.400000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=96.66</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=101.44</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['A', 'D', 'A', 'D']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:16.240000', '0:00:18.880000')]</t>
+          <t>('0:02:02.780000', '0:02:17.555000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:19.040000', '0:01:31.180000')]</t>
+          <t>('0:02:23.580000', '0:02:29.120000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=122.78</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_208</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/A', 'A:7']]</t>
+          <t>['C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D', 'A:7']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:47.800000', '0:00:52.200000')]</t>
+          <t>('0:00:35', '0:00:39.820000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:05.097068', '0:01:13.909041')]</t>
+          <t>('0:01:45.840000', '0:02:00.500000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=47.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=35.0</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=65.097068']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=105.84</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>jaah_22</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>jaah_45</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'A', 'D']]</t>
+          <t>['C:min7', 'F:7', 'Bb:maj6']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb:maj6']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:33.327006', '0:00:38.447006')]</t>
+          <t>('0:00:07.220000', '0:00:09.180000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:11.102000', '0:00:17.361000')]</t>
+          <t>('0:01:00.690000', '0:01:05.210000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=33.327006']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-22#t=7.22</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.102']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-45#t=60.69</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>isophonics_44</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['E:min', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G/3', 'C:maj', 'G/3', 'C:maj', 'G/3', 'C:maj']]</t>
+          <t>['G:min', 'C:min', 'F:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:11.860000', '0:00:16.520000')]</t>
+          <t>('0:00:04.197573', '0:00:08.133356')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:37.019000', '0:02:44.660000')]</t>
+          <t>('0:00:04.360000', '0:00:07.043000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=11.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-44#t=4.197573</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=157.019']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=4.36</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:10.540000', '0:00:12.720000')]</t>
+          <t>('0:00:22.370000', '0:00:47.630000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:09.408834', '0:00:16.560579')]</t>
+          <t>('0:00:53.820000', '0:01:02.520000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=10.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=9.408834']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=53.82</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab:7']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:39.386636', '0:00:52.146870')]</t>
+          <t>('0:01:02.590000', '0:01:11.100000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:06.740000', '0:00:12.420000')]</t>
+          <t>('0:01:53.980000', '0:01:55.310000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=39.386636']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=62.59</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=6.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=113.98</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:00:54.760000', '0:01:02.820000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+          <t>('0:00:00', '0:00:02.430000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=54.76</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=0.0</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>isophonics_294</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D#:maj/A#', 'D#:min/A#', 'A#:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C', 'C:min', 'G/3']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:00:05.320000', '0:00:11.700000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:05.915850', '0:00:14.867142')]</t>
+          <t>('0:00:15.565442', '0:00:19.466394')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=5.32</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=15.565442</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
